--- a/data/trans_camb/P23_7_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_7_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>1,74</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,09</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,43</t>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,65</t>
+          <t>-6,65; 13,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 19,21</t>
+          <t>-6,57; 18,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,45</t>
+          <t>-6,48; 16,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 10,56</t>
+          <t>-6,24; 9,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,72</t>
+          <t>-3,65; 15,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 11,42</t>
+          <t>-5,32; 13,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 9,64</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 13,39</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-2,2; 13,26</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>53,85%</t>
+          <t>74,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>158,79%</t>
+          <t>53,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-21,14%</t>
+          <t>106,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,71%</t>
+          <t>73,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>184,62%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,64%</t>
+          <t>148,55%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>74,85%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114,16%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>127,91%</t>
         </is>
       </c>
     </row>
@@ -730,17 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,32; 729,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-78,38; 292,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 564,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-81,41; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>11,85</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>15,85</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>3,07</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,35</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10,38</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 26,09</t>
+          <t>0,0; 42,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; -0,85</t>
+          <t>1,56; 48,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 3,82</t>
+          <t>-9,71; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 12,46</t>
+          <t>-3,15; 10,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 1,24</t>
+          <t>-2,74; 11,31</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 25,48</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 4,79</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 35,49</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>363,97%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-15,94%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,52%</t>
+          <t>155,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-45,06%</t>
+          <t>162,36%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>572,72%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>132,39%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1110,4%</t>
         </is>
       </c>
     </row>
@@ -896,7 +1032,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 228,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,48</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>8,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-2,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 19,9</t>
+          <t>-5,2; 11,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 8,7</t>
+          <t>-0,67; 20,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 2,73</t>
+          <t>-3,65; 15,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 5,56</t>
+          <t>-8,01; 3,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,34</t>
+          <t>-6,11; 6,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 5,01</t>
+          <t>-7,87; 3,7</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,07; 4,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 9,28</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 6,82</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>59,59%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>171,78%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,04%</t>
+          <t>111,92%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-41,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>-37,85%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-6,66%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>67,62%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>25,05%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,6; 836,16</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,07; 301,37</t>
+          <t>-33,0; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-85,54; 146,22</t>
+          <t>-64,92; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-71,09; 210,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,97; 254,77</t>
+          <t>-77,42; 449,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,56; 145,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-71,39; 204,67</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-34,24; 342,62</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-57,43; 262,03</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>3,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 1,36</t>
+          <t>-4,67; 2,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,1</t>
+          <t>-3,32; 7,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 9,43</t>
+          <t>-1,22; 10,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,65</t>
+          <t>-6,73; 10,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,72</t>
+          <t>-10,48; 6,14</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,21</t>
+          <t>-6,04; 12,22</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 5,99</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; 4,1</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 8,03</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-59,3%</t>
+          <t>-45,77%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>51,4%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>155,74%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>14,98%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>-20,53%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>28,38%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4,39%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-9,66%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>47,74%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-81,12; 287,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,01; 228,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-51,92; 154,97</t>
+          <t>-49,04; 181,76</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 120,97</t>
+          <t>-72,12; 102,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 115,79</t>
+          <t>-45,58; 191,24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-50,63; 161,26</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-61,65; 96,4</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-24,54; 205,2</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>8,81</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 17,08</t>
+          <t>-3,6; 28,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 3,69</t>
+          <t>-8,27; 6,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 6,61</t>
+          <t>-8,81; 6,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 12,16</t>
+          <t>-13,29; 4,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 8,11</t>
+          <t>-7,78; 14,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 5,38</t>
+          <t>-3,21; 23,46</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,09; 18,89</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 7,24</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 10,83</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>120,24%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-36,45%</t>
+          <t>-7,37%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>-20,71%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>33,94%</t>
+          <t>-44,06%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-1,8%</t>
+          <t>29,61%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-0,16%</t>
+          <t>114,04%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>38,94%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>55,81%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-70,31; 365,85</t>
+          <t>-72,06; —</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-78,64; 88,48</t>
+          <t>-87,62; 410,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-64,6; 111,54</t>
+          <t>-100,0; 415,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-42,37; 206,64</t>
+          <t>-100,0; 385,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,82; 131,45</t>
+          <t>-76,85; 510,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-45,43; 90,14</t>
+          <t>-46,06; 731,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-60,29; 526,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-61,85; 201,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-44,07; 312,09</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,5</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-5,65</t>
+          <t>-10,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-4,13</t>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 11,08</t>
+          <t>-4,75; 12,66</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 4,71</t>
+          <t>-4,84; 12,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,69; -1,1</t>
+          <t>-5,31; 10,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 2,7</t>
+          <t>-24,46; -3,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,78; 1,89</t>
+          <t>-21,43; 1,93</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 1,64</t>
+          <t>-14,59; 12,1</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-11,83; 1,75</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,44; 3,65</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 8,18</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>104,07%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-37,93%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-71,09%</t>
+          <t>85,07%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-45,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-39,48%</t>
+          <t>-61,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-42,1%</t>
+          <t>-14,4%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-66,21%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-45,46%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 444,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 481,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 22,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 69,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-75,43; 46,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-79,34; 30,98</t>
+          <t>-87,33; 407,1</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-78,73; 359,64</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>5,54</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1,02</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 6,22</t>
+          <t>-0,09; 12,26</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 3,23</t>
+          <t>-0,92; 5,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 1,13</t>
+          <t>1,45; 15,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,74</t>
+          <t>-5,08; 1,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,52</t>
+          <t>-3,03; 3,86</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,97</t>
+          <t>-1,34; 6,4</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,65; 4,75</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 3,25</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0,97; 8,33</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>137,19%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>64,07%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-23,15%</t>
+          <t>180,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-28,78%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>20,33%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>78,29%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,2; 161,05</t>
+          <t>-20,99; 565,51</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-45,15; 84,12</t>
+          <t>-28,86; 259,85</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-51,85; 23,92</t>
+          <t>13,87; 714,74</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-36,77; 48,44</t>
+          <t>-60,73; 34,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 49,58</t>
+          <t>-40,12; 82,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-29,04; 39,78</t>
+          <t>-18,41; 134,25</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-30,07; 124,95</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-24,43; 93,34</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>13,71; 217,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
